--- a/medicine/Psychotrope/Lion_Nathan/Lion_Nathan.xlsx
+++ b/medicine/Psychotrope/Lion_Nathan/Lion_Nathan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Lion Nathan est une société australo-néo-zélandaise de boissons alcoolisées, formée en 1923 (New Zealand Breweries), devenue Lion Breweries en 1977, et Lion Nathan en 1988. Elle appartient à la société japonaise Kirin. Elle a un effectif de 3 200 employés en Australie et en Nouvelle-Zélande.
@@ -512,10 +524,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1998, Kirin acquiert 18 % de Lion Nathan.
-En 2009, Kirin acquiert la totalité de Lion Nathan soit l'acquisition de 53,9 % qu'il ne possédait pas encore pour l'équivalent de 2,4 milliards de dollars[1]. 
+En 2009, Kirin acquiert la totalité de Lion Nathan soit l'acquisition de 53,9 % qu'il ne possédait pas encore pour l'équivalent de 2,4 milliards de dollars. 
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Marques de bière</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Parmi les marques appartenant à la société figurent :
 Bières australiennes
